--- a/data/AudioBaseline.xlsx
+++ b/data/AudioBaseline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E818259-4781-42D6-AFD9-6DE986A1FD93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B5C881-180C-46E2-8901-D4E536EA1274}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="6">
   <si>
     <t>Neutral</t>
   </si>
@@ -358,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D116"/>
+      <selection sqref="A1:D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1977,16 +1977,576 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="1">
+        <v>116</v>
+      </c>
+      <c r="B116" s="1">
+        <v>1025</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116" s="1">
+        <v>0.28820000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>117</v>
+      </c>
+      <c r="B117" s="1">
+        <v>1025</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" s="1">
+        <v>3.09E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>118</v>
+      </c>
+      <c r="B118" s="1">
+        <v>1025</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" s="1">
+        <v>1.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>119</v>
+      </c>
+      <c r="B119" s="1">
+        <v>1025</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0.66290000000000004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>120</v>
+      </c>
+      <c r="B120" s="1">
+        <v>1025</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120" s="1">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>121</v>
+      </c>
+      <c r="B121" s="1">
+        <v>1026</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0.1676</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>122</v>
+      </c>
+      <c r="B122" s="1">
+        <v>1026</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>123</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1026</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" s="1">
+        <v>8.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>124</v>
+      </c>
+      <c r="B124" s="1">
+        <v>1026</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>125</v>
+      </c>
+      <c r="B125" s="1">
+        <v>1026</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0.74870000000000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>126</v>
+      </c>
+      <c r="B126" s="1">
+        <v>1024</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126" s="1">
+        <v>7.3800000000000004E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>127</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1024</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>128</v>
+      </c>
+      <c r="B128" s="1">
+        <v>1024</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" s="1">
+        <v>1.46E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>129</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1024</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="1">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>130</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1024</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0.90200000000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>131</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1027</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0.94279999999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>132</v>
+      </c>
+      <c r="B132" s="1">
+        <v>1027</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>133</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1027</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133" s="1">
+        <v>4.9200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>134</v>
+      </c>
+      <c r="B134" s="1">
+        <v>1027</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>135</v>
+      </c>
+      <c r="B135" s="1">
+        <v>1027</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>136</v>
+      </c>
+      <c r="B136" s="1">
+        <v>1020</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136" s="1">
+        <v>1.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>137</v>
+      </c>
+      <c r="B137" s="1">
+        <v>1020</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D137" s="1">
+        <v>2.9399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>138</v>
+      </c>
+      <c r="B138" s="1">
+        <v>1020</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>139</v>
+      </c>
+      <c r="B139" s="1">
+        <v>1020</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D139" s="1">
+        <v>0.13830000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>140</v>
+      </c>
+      <c r="B140" s="1">
+        <v>1020</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D140" s="1">
+        <v>0.81369999999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>141</v>
+      </c>
+      <c r="B141" s="1">
+        <v>1028</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D141" s="1">
+        <v>9.4999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>142</v>
+      </c>
+      <c r="B142" s="1">
+        <v>1028</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D142" s="1">
+        <v>9.8799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>143</v>
+      </c>
+      <c r="B143" s="1">
+        <v>1028</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" s="1">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>144</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1028</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D144" s="1">
+        <v>2.06E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>145</v>
+      </c>
+      <c r="B145" s="1">
+        <v>1028</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145" s="1">
+        <v>0.86819999999999997</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>146</v>
+      </c>
+      <c r="B146" s="1">
+        <v>1030</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D146" s="1">
+        <v>8.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>147</v>
+      </c>
+      <c r="B147" s="1">
+        <v>1030</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D147" s="1">
+        <v>8.1199999999999994E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>148</v>
+      </c>
+      <c r="B148" s="1">
+        <v>1030</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>149</v>
+      </c>
+      <c r="B149" s="1">
+        <v>1030</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D149" s="1">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>150</v>
+      </c>
+      <c r="B150" s="1">
+        <v>1030</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150" s="1">
+        <v>0.90710000000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>151</v>
+      </c>
+      <c r="B151" s="1">
+        <v>1031</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D151" s="1">
+        <v>5.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>152</v>
+      </c>
+      <c r="B152" s="1">
+        <v>1031</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D152" s="1">
+        <v>0.3543</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>153</v>
+      </c>
+      <c r="B153" s="1">
+        <v>1031</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>154</v>
+      </c>
+      <c r="B154" s="1">
+        <v>1031</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" s="1">
+        <v>0.1308</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>155</v>
+      </c>
+      <c r="B155" s="1">
+        <v>1031</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D155" s="1">
+        <v>0.50070000000000003</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/AudioBaseline.xlsx
+++ b/data/AudioBaseline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B5C881-180C-46E2-8901-D4E536EA1274}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5C3929-9CB5-4779-AC52-1FF4AF2F3609}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="6">
   <si>
     <t>Neutral</t>
   </si>
@@ -358,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D156"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D156"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="J176" sqref="J176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2537,16 +2537,366 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="1">
+        <v>156</v>
+      </c>
+      <c r="B156" s="1">
+        <v>1032</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D156" s="1">
+        <v>0.18229999999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>157</v>
+      </c>
+      <c r="B157" s="1">
+        <v>1032</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>158</v>
+      </c>
+      <c r="B158" s="1">
+        <v>1032</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158" s="1">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>159</v>
+      </c>
+      <c r="B159" s="1">
+        <v>1032</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D159" s="1">
+        <v>1.34E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>160</v>
+      </c>
+      <c r="B160" s="1">
+        <v>1032</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160" s="1">
+        <v>0.80410000000000004</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>161</v>
+      </c>
+      <c r="B161" s="1">
+        <v>1033</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D161" s="1">
+        <v>0.1769</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>162</v>
+      </c>
+      <c r="B162" s="1">
+        <v>1033</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>163</v>
+      </c>
+      <c r="B163" s="1">
+        <v>1033</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163" s="1">
+        <v>0.79210000000000003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>164</v>
+      </c>
+      <c r="B164" s="1">
+        <v>1033</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D164" s="1">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>165</v>
+      </c>
+      <c r="B165" s="1">
+        <v>1033</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D165" s="1">
+        <v>3.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>166</v>
+      </c>
+      <c r="B166" s="1">
+        <v>1035</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D166" s="1">
+        <v>0.21529999999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>167</v>
+      </c>
+      <c r="B167" s="1">
+        <v>1035</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>168</v>
+      </c>
+      <c r="B168" s="1">
+        <v>1035</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168" s="1">
+        <v>0.77569999999999995</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>169</v>
+      </c>
+      <c r="B169" s="1">
+        <v>1035</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D169" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>170</v>
+      </c>
+      <c r="B170" s="1">
+        <v>1035</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D170" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>171</v>
+      </c>
+      <c r="B171" s="1">
+        <v>1039</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D171" s="1">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>172</v>
+      </c>
+      <c r="B172" s="1">
+        <v>1039</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>173</v>
+      </c>
+      <c r="B173" s="1">
+        <v>1039</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" s="1">
+        <v>5.1200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>174</v>
+      </c>
+      <c r="B174" s="1">
+        <v>1039</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D174" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>175</v>
+      </c>
+      <c r="B175" s="1">
+        <v>1039</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D175" s="1">
+        <v>6.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>176</v>
+      </c>
+      <c r="B176" s="1">
+        <v>1038</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D176" s="1">
+        <v>2.41E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>177</v>
+      </c>
+      <c r="B177" s="1">
+        <v>1038</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D177" s="1">
+        <v>1.6299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>178</v>
+      </c>
+      <c r="B178" s="1">
+        <v>1038</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D178" s="1">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>179</v>
+      </c>
+      <c r="B179" s="1">
+        <v>1038</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D179" s="1">
+        <v>4.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>180</v>
+      </c>
+      <c r="B180" s="1">
+        <v>1038</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D180" s="1">
+        <v>0.90969999999999995</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B181" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C181" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>5</v>
       </c>
     </row>
